--- a/template.xlsx
+++ b/template.xlsx
@@ -1,31 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e72f9f9050a94874/파이썬프로젝트/CLM(CheckListMaker)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="8_{2C967CC2-AEA5-49F9-9554-B29A26010F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DC285C9-64E6-4F57-8DDD-5A5EE4A46E4B}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="8_{2C967CC2-AEA5-49F9-9554-B29A26010F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF438FB3-64C3-4092-8C8C-3EDF84535578}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A65E751B-33B0-4CB5-8B65-D7E713245B1B}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11505" tabRatio="1000" activeTab="7" xr2:uid="{A65E751B-33B0-4CB5-8B65-D7E713245B1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="뽑기상자" sheetId="10" r:id="rId1"/>
-    <sheet name="몬스터" sheetId="14" r:id="rId2"/>
-    <sheet name="몬스터 (2)" sheetId="15" r:id="rId3"/>
-    <sheet name="길드도감정보" sheetId="13" r:id="rId4"/>
-    <sheet name="길드도감재료" sheetId="11" r:id="rId5"/>
-    <sheet name="길드도감확률" sheetId="12" r:id="rId6"/>
-    <sheet name="Cashshop" sheetId="2" r:id="rId7"/>
-    <sheet name="Item1" sheetId="9" r:id="rId8"/>
-    <sheet name="장비" sheetId="5" r:id="rId9"/>
-    <sheet name="도감" sheetId="6" r:id="rId10"/>
-    <sheet name="출석이벤트" sheetId="3" r:id="rId11"/>
-    <sheet name="제작" sheetId="8" r:id="rId12"/>
-    <sheet name="Cashshop (2)" sheetId="4" r:id="rId13"/>
+    <sheet name="유물" sheetId="16" r:id="rId1"/>
+    <sheet name="유물 (2)" sheetId="18" r:id="rId2"/>
+    <sheet name="뽑기상자" sheetId="10" r:id="rId3"/>
+    <sheet name="몬스터" sheetId="14" r:id="rId4"/>
+    <sheet name="몬스터_능력치" sheetId="17" r:id="rId5"/>
+    <sheet name="몬스터 (2)" sheetId="15" r:id="rId6"/>
+    <sheet name="길드도감정보" sheetId="13" r:id="rId7"/>
+    <sheet name="길드도감재료" sheetId="11" r:id="rId8"/>
+    <sheet name="길드도감확률" sheetId="12" r:id="rId9"/>
+    <sheet name="Cashshop" sheetId="2" r:id="rId10"/>
+    <sheet name="Item1" sheetId="9" r:id="rId11"/>
+    <sheet name="장비" sheetId="5" r:id="rId12"/>
+    <sheet name="도감" sheetId="6" r:id="rId13"/>
+    <sheet name="출석이벤트" sheetId="3" r:id="rId14"/>
+    <sheet name="제작" sheetId="8" r:id="rId15"/>
+    <sheet name="Cashshop (2)" sheetId="4" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="115">
   <si>
     <t>이름</t>
   </si>
@@ -361,18 +364,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{능력치} {수치}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력치 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{아이템 명} | {아이템 ID}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>스킨/애니메이션</t>
   </si>
   <si>
@@ -395,12 +386,6 @@
   </si>
   <si>
     <t>골드</t>
-  </si>
-  <si>
-    <t>스킬</t>
-  </si>
-  <si>
-    <t>없음</t>
   </si>
   <si>
     <t>{몬스터 이름}
@@ -436,17 +421,86 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{상자 이름}
-{mID}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>구성품 획득</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{구성품} x {수량}</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{아이템명}
+{아이템 ID}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{아이템명}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{등급}] 유물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게 : {아이템무게}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{안전 강화 단계}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 시 손실 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{사망 시 손실 여부}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{mMinD} ~ {mMaxD} </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{몬스터 이름}
+{몬스터 ID}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{Name}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category1</t>
+  </si>
+  <si>
+    <t>{도감 이름}</t>
+  </si>
+  <si>
+    <t>도감명</t>
+  </si>
+  <si>
+    <t>도감 재료</t>
+  </si>
+  <si>
+    <t>{아이템 명} | {아이템 ID}</t>
+  </si>
+  <si>
+    <t>능력치 확인</t>
+  </si>
+  <si>
+    <t>{능력치} +{수치}</t>
+  </si>
+  <si>
+    <t>확률</t>
+  </si>
+  <si>
+    <t>{등록확률}</t>
   </si>
 </sst>
 </file>
@@ -599,7 +653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -630,16 +684,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -649,6 +700,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -675,9 +738,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -715,7 +778,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -821,7 +884,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -963,56 +1026,429 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2562689-34C1-4EF4-A0E5-4B68AAD3F5D4}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA565E2-48CA-4BBB-96B4-4C1D4CC008D6}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>100</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032A0CD0-5EF4-4B18-9DD4-1202464A3BFC}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E977F0-06FC-4DBC-8542-4AEE255928CD}">
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD12259A-37A9-4C43-8E38-20C72694B928}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607C3FB0-32BA-4BF8-AFAC-C067C2F6EB6A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1039,7 +1475,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1050,7 +1486,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1059,7 +1495,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1068,7 +1504,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1085,7 +1521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB264481-3C90-4D19-AA94-4184190F6E8D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1121,7 +1557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23C9897-8F0F-4418-B296-44AD70EC9E4A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1148,7 +1584,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1159,7 +1595,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
@@ -1168,7 +1604,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1177,7 +1613,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1186,7 +1622,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
@@ -1203,7 +1639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54BC16F-71A5-4679-ABEB-7E9B33B351AB}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1230,7 +1666,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1241,7 +1677,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1259,11 +1695,171 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99C73A8-2357-4742-87F8-3EA790AEF811}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD7FF69-DB18-4399-BCA3-24EB253A352B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2562689-34C1-4EF4-A0E5-4B68AAD3F5D4}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99C73A8-2357-4742-87F8-3EA790AEF811}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1285,103 +1881,94 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>90</v>
+      <c r="A2" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD177755-02EA-47DB-9B21-AD799C86FBEF}">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0FBFA6-02C7-489E-B042-6D2B9087A3FF}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1403,23 +1990,96 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>90</v>
       </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD177755-02EA-47DB-9B21-AD799C86FBEF}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="56.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +2091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8648ECE7-D74C-45F6-848E-3CC9587CD0FE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1474,12 +2134,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F814EB1-7FD2-4201-9706-40E12F30F832}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1491,7 +2151,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1501,44 +2161,49 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>72</v>
+      <c r="A2" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C110A2F8-C41C-4B7A-8DA1-4169265245AC}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1579,303 +2244,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032A0CD0-5EF4-4B18-9DD4-1202464A3BFC}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E977F0-06FC-4DBC-8542-4AEE255928CD}">
-  <dimension ref="A2:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="52" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD12259A-37A9-4C43-8E38-20C72694B928}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A10"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>